--- a/Internfinder-BE/GAO_BackEnd/src/main/resources/jxls/template-CV.xlsx
+++ b/Internfinder-BE/GAO_BackEnd/src/main/resources/jxls/template-CV.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FullStack_Version05\BE\GAO_BackEnd\Internfinder-BE\GAO_BackEnd\src\main\resources\jxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +28,7 @@
   <authors>
     <author>Microsoft Office ユーザー</author>
     <author>Hoàng Anh</author>
+    <author>dat pham</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:area(lastCell="BC60")</t>
+          <t>jx:area(lastCell="BB59")</t>
         </r>
       </text>
     </comment>
@@ -58,12 +58,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D14" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(var="skill", items="user.skills", lastCell="D14")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(var="thanhTich", items="user.thanhTichs", lastCell="D24")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>${user.dayOfBirth}</t>
   </si>
@@ -83,12 +109,6 @@
     <t>${user.firstName} ${user.lastName}</t>
   </si>
   <si>
-    <t>KỸ NĂNG</t>
-  </si>
-  <si>
-    <t>GIẢI THƯỞNG</t>
-  </si>
-  <si>
     <t>MỤC TIÊU</t>
   </si>
   <si>
@@ -101,10 +121,31 @@
     <t>${user.email}</t>
   </si>
   <si>
-    <t>${user.quocgia}</t>
+    <t>Internfinder</t>
   </si>
   <si>
-    <t>${user.honnhan}</t>
+    <t xml:space="preserve"> KỸ NĂNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIẢI THƯỞNG</t>
+  </si>
+  <si>
+    <t>${skill}</t>
+  </si>
+  <si>
+    <t>${thanhTich}</t>
+  </si>
+  <si>
+    <t>${user.quocGia}</t>
+  </si>
+  <si>
+    <t>${user.honNhan}</t>
+  </si>
+  <si>
+    <t>${user.kinhNghiems}</t>
+  </si>
+  <si>
+    <t>${user.hocTap}</t>
   </si>
 </sst>
 </file>
@@ -114,25 +155,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###&quot;円&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -156,12 +185,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -174,10 +197,19 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF0099FF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -185,14 +217,8 @@
       <color rgb="FF0099FF"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,13 +233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0099FF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D92FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,80 +261,86 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -313,8 +351,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6D92FB"/>
+      <color rgb="FFDDDDDD"/>
       <color rgb="FF0099FF"/>
-      <color rgb="FF6D92FB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -640,102 +679,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:DX44"/>
+  <dimension ref="A1:CV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO6" sqref="BO6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:BA30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="18" width="2.140625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" style="2" customWidth="1"/>
-    <col min="20" max="54" width="2.140625" style="9" customWidth="1"/>
-    <col min="55" max="55" width="2.140625" style="2" customWidth="1"/>
-    <col min="56" max="16384" width="1.85546875" style="2"/>
+    <col min="1" max="1" width="2.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="3" customWidth="1"/>
+    <col min="3" max="18" width="2.109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="8" customWidth="1"/>
+    <col min="20" max="23" width="2.109375" style="13" customWidth="1"/>
+    <col min="24" max="24" width="2.5546875" style="13" customWidth="1"/>
+    <col min="25" max="54" width="2.109375" style="13" customWidth="1"/>
+    <col min="55" max="55" width="2.109375" style="8" customWidth="1"/>
+    <col min="56" max="16384" width="1.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="1"/>
+    <row r="1" spans="1:100" s="3" customFormat="1" ht="20.399999999999999">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
     </row>
     <row r="2" spans="1:100" ht="15">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="10"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="17" t="s">
         <v>5</v>
       </c>
@@ -771,13 +810,13 @@
       <c r="AY2" s="17"/>
       <c r="AZ2" s="17"/>
       <c r="BA2" s="17"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
     </row>
     <row r="3" spans="1:100" ht="15">
-      <c r="A3" s="2"/>
-      <c r="T3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
@@ -811,11 +850,11 @@
       <c r="AY3" s="17"/>
       <c r="AZ3" s="17"/>
       <c r="BA3" s="17"/>
-      <c r="BB3" s="11"/>
-      <c r="CV3" s="3"/>
+      <c r="BB3" s="10"/>
+      <c r="CV3" s="4"/>
     </row>
     <row r="4" spans="1:100" ht="15">
-      <c r="T4" s="11"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
@@ -849,11 +888,11 @@
       <c r="AY4" s="17"/>
       <c r="AZ4" s="17"/>
       <c r="BA4" s="17"/>
-      <c r="BB4" s="11"/>
-    </row>
-    <row r="5" spans="1:100" ht="15" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="T5" s="11"/>
+      <c r="BB4" s="10"/>
+    </row>
+    <row r="5" spans="1:100" ht="18" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="T5" s="10"/>
       <c r="U5" s="18" t="s">
         <v>0</v>
       </c>
@@ -872,9 +911,7 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="11">
-        <v>17</v>
-      </c>
+      <c r="AK5" s="11"/>
       <c r="AL5" s="18" t="s">
         <v>1</v>
       </c>
@@ -894,10 +931,10 @@
       <c r="AZ5" s="18"/>
       <c r="BA5" s="18"/>
       <c r="BB5" s="18"/>
-      <c r="CV5" s="3"/>
-    </row>
-    <row r="6" spans="1:100" ht="15">
-      <c r="T6" s="11"/>
+      <c r="CV5" s="4"/>
+    </row>
+    <row r="6" spans="1:100" ht="16.8" customHeight="1">
+      <c r="T6" s="10"/>
       <c r="U6" s="18" t="s">
         <v>2</v>
       </c>
@@ -918,7 +955,7 @@
       <c r="AJ6" s="18"/>
       <c r="AK6" s="11"/>
       <c r="AL6" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM6" s="18"/>
       <c r="AN6" s="18"/>
@@ -937,11 +974,11 @@
       <c r="BA6" s="18"/>
       <c r="BB6" s="18"/>
     </row>
-    <row r="7" spans="1:100" ht="15">
-      <c r="A7" s="2"/>
-      <c r="T7" s="11"/>
+    <row r="7" spans="1:100" ht="16.2" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -960,7 +997,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AM7" s="18"/>
       <c r="AN7" s="18"/>
@@ -979,8 +1016,8 @@
       <c r="BA7" s="18"/>
       <c r="BB7" s="18"/>
     </row>
-    <row r="8" spans="1:100" ht="15">
-      <c r="T8" s="11"/>
+    <row r="8" spans="1:100" ht="18.600000000000001" customHeight="1">
+      <c r="T8" s="10"/>
       <c r="U8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1019,494 +1056,1640 @@
       <c r="BB8" s="18"/>
     </row>
     <row r="9" spans="1:100" ht="13.5" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BZ9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BZ9" s="12"/>
     </row>
     <row r="10" spans="1:100" ht="13.5" customHeight="1">
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
     </row>
     <row r="11" spans="1:100" ht="15" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:100" ht="15" customHeight="1">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="U12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="U12" s="22" t="s">
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+    </row>
+    <row r="13" spans="1:100" ht="15">
+      <c r="A13" s="8"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" spans="1:100" ht="15">
+      <c r="D14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="U14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+    </row>
+    <row r="15" spans="1:100" ht="15">
+      <c r="A15" s="8"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="14"/>
+    </row>
+    <row r="16" spans="1:100" ht="15">
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="14"/>
+    </row>
+    <row r="17" spans="1:78" ht="15">
+      <c r="A17" s="8"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="14"/>
+    </row>
+    <row r="18" spans="1:78" ht="15">
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="14"/>
+    </row>
+    <row r="19" spans="1:78" ht="15">
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="14"/>
+    </row>
+    <row r="20" spans="1:78" ht="15"/>
+    <row r="21" spans="1:78" ht="15" customHeight="1">
+      <c r="U21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+    </row>
+    <row r="22" spans="1:78" ht="15">
+      <c r="C22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+    </row>
+    <row r="23" spans="1:78" ht="15">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="U23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BZ23" s="14"/>
+    </row>
+    <row r="24" spans="1:78" ht="15">
+      <c r="D24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BZ24" s="14"/>
+    </row>
+    <row r="25" spans="1:78" ht="15">
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BZ25" s="14"/>
+    </row>
+    <row r="26" spans="1:78" ht="15">
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
+      <c r="AT26" s="21"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="21"/>
+      <c r="AX26" s="21"/>
+      <c r="AY26" s="21"/>
+      <c r="AZ26" s="21"/>
+      <c r="BA26" s="21"/>
+      <c r="BZ26" s="14"/>
+    </row>
+    <row r="27" spans="1:78" ht="15">
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="21"/>
+      <c r="BA27" s="21"/>
+    </row>
+    <row r="28" spans="1:78" ht="15">
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="21"/>
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+    </row>
+    <row r="29" spans="1:78" ht="15">
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="21"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="21"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
+      <c r="BA29" s="21"/>
+    </row>
+    <row r="30" spans="1:78" ht="13.5" customHeight="1">
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="21"/>
+      <c r="AT30" s="21"/>
+      <c r="AU30" s="21"/>
+      <c r="AV30" s="21"/>
+      <c r="AW30" s="21"/>
+      <c r="AX30" s="21"/>
+      <c r="AY30" s="21"/>
+      <c r="AZ30" s="21"/>
+      <c r="BA30" s="21"/>
+    </row>
+    <row r="32" spans="1:78" ht="13.5" customHeight="1">
+      <c r="U32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-    </row>
-    <row r="13" spans="1:100" ht="15">
-      <c r="A13" s="2"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-    </row>
-    <row r="14" spans="1:100" ht="15">
-      <c r="U14" s="23" t="s">
-        <v>4</v>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="BZ32" s="15"/>
+    </row>
+    <row r="33" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U34" s="21" t="s">
+        <v>17</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-    </row>
-    <row r="15" spans="1:100" ht="15">
-      <c r="A15" s="2"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="4"/>
-    </row>
-    <row r="16" spans="1:100" ht="15">
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="4"/>
-    </row>
-    <row r="17" spans="1:78" ht="15">
-      <c r="A17" s="2"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23"/>
-      <c r="AV17" s="23"/>
-      <c r="AW17" s="23"/>
-      <c r="AX17" s="23"/>
-      <c r="AY17" s="23"/>
-      <c r="AZ17" s="23"/>
-      <c r="BA17" s="23"/>
-      <c r="BB17" s="23"/>
-      <c r="BC17" s="4"/>
-    </row>
-    <row r="18" spans="1:78" ht="15">
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
-      <c r="AW18" s="23"/>
-      <c r="AX18" s="23"/>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="23"/>
-      <c r="BA18" s="23"/>
-      <c r="BB18" s="23"/>
-      <c r="BC18" s="4"/>
-    </row>
-    <row r="19" spans="1:78" ht="15">
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="23"/>
-      <c r="BA19" s="23"/>
-      <c r="BB19" s="23"/>
-      <c r="BC19" s="4"/>
-    </row>
-    <row r="20" spans="1:78" ht="15"/>
-    <row r="21" spans="1:78" ht="15" customHeight="1">
-      <c r="U21" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-    </row>
-    <row r="22" spans="1:78" ht="15">
-      <c r="C22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-    </row>
-    <row r="23" spans="1:78" ht="15">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="BZ23" s="4"/>
-    </row>
-    <row r="24" spans="1:78" ht="15">
-      <c r="BZ24" s="4"/>
-    </row>
-    <row r="25" spans="1:78" ht="15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="15"/>
-      <c r="BC25" s="6"/>
-      <c r="BZ25" s="4"/>
-    </row>
-    <row r="26" spans="1:78" ht="15">
-      <c r="BZ26" s="4"/>
-    </row>
-    <row r="27" spans="1:78" ht="15">
-      <c r="BZ27" s="4"/>
-    </row>
-    <row r="28" spans="1:78" ht="15"/>
-    <row r="29" spans="1:78" ht="15"/>
-    <row r="30" spans="1:78" ht="15"/>
-    <row r="33" spans="21:128" ht="13.5" customHeight="1">
-      <c r="U33" s="16" t="s">
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+    </row>
+    <row r="35" spans="21:59" ht="15.6" customHeight="1">
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="21"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="21"/>
+      <c r="AZ35" s="21"/>
+      <c r="BA35" s="21"/>
+    </row>
+    <row r="36" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+    </row>
+    <row r="37" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+    </row>
+    <row r="38" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="21"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="AY38" s="21"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="21"/>
+    </row>
+    <row r="39" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+    </row>
+    <row r="40" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="21"/>
+      <c r="BA40" s="21"/>
+    </row>
+    <row r="41" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BA41" s="21"/>
+    </row>
+    <row r="42" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AQ42" s="21"/>
+      <c r="AR42" s="21"/>
+      <c r="AS42" s="21"/>
+      <c r="AT42" s="21"/>
+      <c r="AU42" s="21"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="21"/>
+      <c r="AY42" s="21"/>
+      <c r="AZ42" s="21"/>
+      <c r="BA42" s="21"/>
+    </row>
+    <row r="43" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="21"/>
+      <c r="BA43" s="21"/>
+      <c r="BG43" s="16"/>
+    </row>
+    <row r="44" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21"/>
+      <c r="AZ44" s="21"/>
+      <c r="BA44" s="21"/>
+    </row>
+    <row r="45" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="21"/>
+      <c r="AO45" s="21"/>
+      <c r="AP45" s="21"/>
+      <c r="AQ45" s="21"/>
+      <c r="AR45" s="21"/>
+      <c r="AS45" s="21"/>
+      <c r="AT45" s="21"/>
+      <c r="AU45" s="21"/>
+      <c r="AV45" s="21"/>
+      <c r="AW45" s="21"/>
+      <c r="AX45" s="21"/>
+      <c r="AY45" s="21"/>
+      <c r="AZ45" s="21"/>
+      <c r="BA45" s="21"/>
+    </row>
+    <row r="46" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="21"/>
+      <c r="AR46" s="21"/>
+      <c r="AS46" s="21"/>
+      <c r="AT46" s="21"/>
+      <c r="AU46" s="21"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="21"/>
+      <c r="AY46" s="21"/>
+      <c r="AZ46" s="21"/>
+      <c r="BA46" s="21"/>
+    </row>
+    <row r="47" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21"/>
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21"/>
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21"/>
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+    </row>
+    <row r="48" spans="21:59" ht="13.5" customHeight="1">
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="21"/>
+      <c r="AW48" s="21"/>
+      <c r="AX48" s="21"/>
+      <c r="AY48" s="21"/>
+      <c r="AZ48" s="21"/>
+      <c r="BA48" s="21"/>
+    </row>
+    <row r="49" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="21"/>
+      <c r="AU49" s="21"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="21"/>
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="21"/>
+      <c r="BA49" s="21"/>
+    </row>
+    <row r="50" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="21"/>
+      <c r="AQ50" s="21"/>
+      <c r="AR50" s="21"/>
+      <c r="AS50" s="21"/>
+      <c r="AT50" s="21"/>
+      <c r="AU50" s="21"/>
+      <c r="AV50" s="21"/>
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="21"/>
+      <c r="AY50" s="21"/>
+      <c r="AZ50" s="21"/>
+      <c r="BA50" s="21"/>
+    </row>
+    <row r="51" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21"/>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="21"/>
+      <c r="BA51" s="21"/>
+    </row>
+    <row r="52" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+    </row>
+    <row r="53" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="21"/>
+      <c r="AR53" s="21"/>
+      <c r="AS53" s="21"/>
+      <c r="AT53" s="21"/>
+      <c r="AU53" s="21"/>
+      <c r="AV53" s="21"/>
+      <c r="AW53" s="21"/>
+      <c r="AX53" s="21"/>
+      <c r="AY53" s="21"/>
+      <c r="AZ53" s="21"/>
+      <c r="BA53" s="21"/>
+    </row>
+    <row r="54" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+    </row>
+    <row r="55" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+    </row>
+    <row r="56" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+    </row>
+    <row r="57" spans="21:53" ht="13.5" customHeight="1">
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+      <c r="AP57" s="21"/>
+      <c r="AQ57" s="21"/>
+      <c r="AR57" s="21"/>
+      <c r="AS57" s="21"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="21"/>
+      <c r="AV57" s="21"/>
+      <c r="AW57" s="21"/>
+      <c r="AX57" s="21"/>
+      <c r="AY57" s="21"/>
+      <c r="AZ57" s="21"/>
+      <c r="BA57" s="21"/>
+    </row>
+    <row r="59" spans="21:53" ht="13.5" customHeight="1">
+      <c r="AV59" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="BZ33" s="6"/>
-    </row>
-    <row r="34" spans="21:128" ht="13.5" customHeight="1">
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-    </row>
-    <row r="44" spans="21:128" ht="13.5" customHeight="1">
-      <c r="DX44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="U34:BA57"/>
+    <mergeCell ref="U7:AJ7"/>
+    <mergeCell ref="AL7:BB7"/>
+    <mergeCell ref="U8:BB8"/>
     <mergeCell ref="C12:K13"/>
     <mergeCell ref="C22:K23"/>
     <mergeCell ref="U12:AE13"/>
     <mergeCell ref="U14:BB19"/>
     <mergeCell ref="U21:AI22"/>
-    <mergeCell ref="U33:AG34"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="U23:BA30"/>
     <mergeCell ref="U2:BA4"/>
     <mergeCell ref="U5:AJ5"/>
     <mergeCell ref="U6:AJ6"/>
     <mergeCell ref="AL5:BB5"/>
     <mergeCell ref="AL6:BB6"/>
-    <mergeCell ref="U7:AJ7"/>
-    <mergeCell ref="AL7:BB7"/>
-    <mergeCell ref="U8:BB8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AL6" r:id="rId1" display="hoanganhtran669@gmail.com"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="79" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>

--- a/Internfinder-BE/GAO_BackEnd/src/main/resources/jxls/template-CV.xlsx
+++ b/Internfinder-BE/GAO_BackEnd/src/main/resources/jxls/template-CV.xlsx
@@ -328,7 +328,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:BA30"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="13.5" customHeight="1"/>
